--- a/jett-core/templates/TagListenersTemplate.xlsx
+++ b/jett-core/templates/TagListenersTemplate.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="21795" windowHeight="11280"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="21795" windowHeight="11280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="byClass" sheetId="1" r:id="rId1"/>
     <sheet name="byInstance" sheetId="2" r:id="rId2"/>
     <sheet name="implClass" sheetId="3" r:id="rId3"/>
     <sheet name="implInstance" sheetId="4" r:id="rId4"/>
+    <sheet name="before" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Employees</t>
   </si>
@@ -68,6 +69,15 @@
   </si>
   <si>
     <t>&lt;jt:if test="${employee.getManager() != null}" elseAction="clear" onProcessed="${italicTagListener}"&gt;${employee.manager.lastName}, ${employee.manager.firstName}&lt;/jt:if&gt;&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>Number of Employees:</t>
+  </si>
+  <si>
+    <t>&lt;jt:for var="x" start="1" end="1" onProcessed="${boldTagListener}"&gt;The above will be replaced by ${employees.size()}&lt;/jt:for&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:for var="x" start="1" end="1" onProcessed="${boldTagListener}"&gt;Will be replaced!&lt;/jt:for&gt;</t>
   </si>
 </sst>
 </file>
@@ -497,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -723,4 +733,33 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>